--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_102_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_102_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.8166419237383928, 1.406728988404731]</t>
+          <t>[0.8142529817908737, 1.40911793035225]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.376133429431547e-09</v>
+        <v>1.691431217309969e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.376133429431547e-09</v>
+        <v>1.691431217309969e-09</v>
       </c>
       <c r="O2" t="n">
         <v>1.062921238151501</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 1.3270791789938858]</t>
+          <t>[0.8113422468730391, 1.3145002294299637]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.430915468920603e-10</v>
+        <v>6.323563894738982e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>2.430915468920603e-10</v>
+        <v>6.323563894738982e-11</v>
       </c>
       <c r="S2" t="n">
         <v>0.3992084386755447</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2423156947948122, 0.5561011825562772]</t>
+          <t>[0.24221850733716765, 0.5561983700139217]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.064075511735822e-06</v>
+        <v>6.128809085348408e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>6.064075511735822e-06</v>
+        <v>6.128809085348408e-06</v>
       </c>
       <c r="W2" t="n">
         <v>20.39689689689749</v>
       </c>
       <c r="X2" t="n">
-        <v>19.36476476476533</v>
+        <v>19.41391391391447</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.42902902902965</v>
+        <v>21.3798798798805</v>
       </c>
     </row>
   </sheetData>
